--- a/biology/Zoologie/Dendronephthya/Dendronephthya.xlsx
+++ b/biology/Zoologie/Dendronephthya/Dendronephthya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendronephthya est un genre de coraux de la famille des Nephtheidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces coraux sont mous, et suffisamment translucides pour laisser transparaître les spicules calcaires disséminés dans l'organisme. Ils sont généralement de couleur vive et présentent des ramifications. Ce genre compte plus de 250 espèces, souvent très difficiles à distinguer les unes des autres.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (26 septembre 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (26 septembre 2014) :
 Dendronephthya acaulis Kükenthal, 1906
 Dendronephthya aculeata Kükenthal, 1905
 Dendronephthya agaricoides Henderson, 1909
@@ -827,7 +843,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On les trouve en Mer Rouge, dans l'Océan Indien et dans l'Océan Pacifique.
 </t>
@@ -858,7 +876,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce corail figure sur une émission d'Israël de 1986 (valeur faciale : 50 s).
 </t>
